--- a/biology/Virologie/Morbillivirus/Morbillivirus.xlsx
+++ b/biology/Virologie/Morbillivirus/Morbillivirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morbillivirus est un genre de virus à ARN simple brin et à polarité négative, de la famille de Paramyxoviridés.
 Le virus de la rougeole, celui de la maladie de Carré, celui de la peste des petits ruminants et de la peste bovine en font partie.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les morbilivirus provoquent essentiellement des lésions de l'appareil respiratoire et du système nerveux ainsi qu'une congestion généralisée des organes. 
 On a identifié certaines espèces comme atteignant en Méditerranée le phoque moine de Méditerranée et les odontocètes. 
@@ -544,9 +558,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (24 mai 2010)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (24 mai 2010) :
 Virus de la maladie de Carré (distemper virus)
 Morbillivirus des cétacés (Cetacean morbillivirus)
 Virus de la rougeole (Measles virus)
